--- a/va_facility_data_2025-02-20/Natchitoches VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Natchitoches%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Natchitoches VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Natchitoches%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7431c10e563e4d4aa06ad66509411ff6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8bef4e28028d43cb997303f7455eb59f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R023b778d62b44aebbf4e4b40c88fd9f0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5f49ef47d43d40feb3c3c72b0e262fd5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbd1cef9fdd954e1387b7fcf59e3df388"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rce23850d4e824c91a487417b38aa7eb9"/>
   </x:sheets>
 </x:workbook>
 </file>
